--- a/Excel/Misccash.xlsx
+++ b/Excel/Misccash.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>Username</t>
   </si>
@@ -156,9 +156,6 @@
     <t>AE - BPS - Comp1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>AED</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>HDFC Card</t>
   </si>
   <si>
@@ -277,6 +271,9 @@
   </si>
   <si>
     <t>AE Branch 01</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -338,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,10 +761,10 @@
         <v>17</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>15</v>
@@ -773,31 +773,31 @@
         <v>16</v>
       </c>
       <c r="U1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="AA1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AD1" s="9" t="s">
         <v>19</v>
@@ -806,31 +806,31 @@
         <v>20</v>
       </c>
       <c r="AF1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="AH1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AJ1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="AK1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN1" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="AO1" s="9" t="s">
         <v>23</v>
@@ -907,10 +907,10 @@
         <v>42</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>42</v>
@@ -919,112 +919,112 @@
         <v>42</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AG2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AV2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AT2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="AX2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Misccash.xlsx
+++ b/Excel/Misccash.xlsx
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AN3" sqref="AN3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
